--- a/Data Files/OTM Test Data/OTM Order data.xlsx
+++ b/Data Files/OTM Test Data/OTM Order data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Order ID</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>SO_TEST472724</t>
+  </si>
+  <si>
+    <t>SO_TEST668187</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F71A60-031B-47A6-9564-1B4B3385F003}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -588,6 +591,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="javascript:void(0);" r:id="rId1" ref="A3" xr:uid="{7A66193B-BEB1-4A93-A469-509DC44121C0}"/>

--- a/Data Files/OTM Test Data/OTM Order data.xlsx
+++ b/Data Files/OTM Test Data/OTM Order data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Order ID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>SO_TEST668187</t>
+  </si>
+  <si>
+    <t>SO_TEST965834</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F71A60-031B-47A6-9564-1B4B3385F003}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -596,6 +599,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="javascript:void(0);" r:id="rId1" ref="A3" xr:uid="{7A66193B-BEB1-4A93-A469-509DC44121C0}"/>
